--- a/RelatoriosTemplates/AuthorsTemplate2BK.xlsx
+++ b/RelatoriosTemplates/AuthorsTemplate2BK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ApiAcme\RelatoriosTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquitetura\Poc Microservicos\ApiAcme\RelatoriosTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724BFC2-9A9F-45E5-B956-44BFBD0C3600}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D3BE3A-2B63-48F8-BED3-0EF51DB86F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7600" windowWidth="19200" windowHeight="3520" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="21" x14ac:dyDescent="0.5"/>

--- a/RelatoriosTemplates/AuthorsTemplate2BK.xlsx
+++ b/RelatoriosTemplates/AuthorsTemplate2BK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquitetura\Poc Microservicos\ApiAcme\RelatoriosTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ApiAcme\RelatoriosTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D3BE3A-2B63-48F8-BED3-0EF51DB86F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724BFC2-9A9F-45E5-B956-44BFBD0C3600}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7600" windowWidth="19200" windowHeight="3520" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
